--- a/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,99</t>
+          <t>0,73; 2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,38</t>
+          <t>1,28; 4,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,39</t>
+          <t>1,62; 5,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,52</t>
+          <t>3,13; 10,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,16</t>
+          <t>1,83; 5,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,35</t>
+          <t>2,56; 6,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,89</t>
+          <t>0,97; 4,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,99</t>
+          <t>3,62; 10,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,42</t>
+          <t>1,53; 3,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,84</t>
+          <t>2,18; 4,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,89</t>
+          <t>1,76; 3,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,22</t>
+          <t>4,02; 8,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,52</t>
+          <t>1,34; 3,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,92</t>
+          <t>3,51; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,71</t>
+          <t>1,89; 4,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,45</t>
+          <t>6,58; 14,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,75</t>
+          <t>1,42; 3,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,05</t>
+          <t>2,56; 6,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,77</t>
+          <t>1,33; 3,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,75</t>
+          <t>2,04; 5,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,22</t>
+          <t>1,64; 3,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,87</t>
+          <t>3,44; 5,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,74</t>
+          <t>1,83; 3,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,6</t>
+          <t>4,65; 8,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,07</t>
+          <t>2,75; 6,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,47</t>
+          <t>3,78; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,28</t>
+          <t>2,31; 5,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,44</t>
+          <t>2,11; 5,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,46</t>
+          <t>3,17; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,55</t>
+          <t>5,48; 9,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,47</t>
+          <t>2,57; 5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,0</t>
+          <t>4,62; 8,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,67</t>
+          <t>3,35; 5,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,83</t>
+          <t>5,09; 7,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,79</t>
+          <t>2,82; 4,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,28</t>
+          <t>3,8; 6,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,86</t>
+          <t>3,49; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,89</t>
+          <t>4,69; 8,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,93</t>
+          <t>5,22; 9,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,35</t>
+          <t>7,17; 12,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,04</t>
+          <t>6,32; 11,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,37</t>
+          <t>7,5; 12,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,12</t>
+          <t>5,09; 9,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,21</t>
+          <t>7,53; 10,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,56</t>
+          <t>5,38; 8,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,8</t>
+          <t>6,62; 10,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,53</t>
+          <t>5,62; 8,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 11,1</t>
+          <t>7,95; 11,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,45</t>
+          <t>6,42; 12,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,24</t>
+          <t>8,06; 14,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,15</t>
+          <t>6,29; 11,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,44</t>
+          <t>13,47; 19,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,97</t>
+          <t>5,51; 11,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 15,02</t>
+          <t>8,55; 14,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 16,36</t>
+          <t>10,1; 16,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,53</t>
+          <t>8,63; 12,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,88</t>
+          <t>6,74; 10,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,46</t>
+          <t>9,19; 13,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,14</t>
+          <t>8,94; 13,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,48</t>
+          <t>11,68; 15,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,5</t>
+          <t>7,66; 12,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 18,3</t>
+          <t>11,25; 18,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,74</t>
+          <t>5,53; 9,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 21,57</t>
+          <t>16,78; 21,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,19</t>
+          <t>8,54; 13,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 18,66</t>
+          <t>13,06; 18,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,26</t>
+          <t>8,97; 14,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,38; 53,01</t>
+          <t>22,59; 49,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,22</t>
+          <t>8,6; 12,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,39</t>
+          <t>13,08; 17,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 11,54</t>
+          <t>8,12; 11,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,97; 43,85</t>
+          <t>21,01; 41,65</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,75</t>
+          <t>4,23; 5,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,44</t>
+          <t>6,37; 8,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,41</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,63</t>
+          <t>10,16; 12,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,05</t>
+          <t>5,37; 7,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 10,13</t>
+          <t>8,08; 10,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,87</t>
+          <t>6,01; 7,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,05; 23,21</t>
+          <t>11,08; 22,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,14</t>
+          <t>5,05; 6,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,57; 8,96</t>
+          <t>7,56; 8,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,85</t>
+          <t>5,65; 6,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,88</t>
+          <t>11,11; 17,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,98</t>
+          <t>2,24; 9,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,11</t>
+          <t>1,95; 5,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,82</t>
+          <t>3,7; 11,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,48</t>
+          <t>1,59; 3,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,99</t>
+          <t>3,45; 8,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,52</t>
+          <t>6,3; 14,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,95</t>
+          <t>1,55; 4,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,54</t>
+          <t>1,52; 4,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,18</t>
+          <t>1,7; 3,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,86</t>
+          <t>4,15; 8,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,54%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,27</t>
+          <t>2,17; 5,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,24</t>
+          <t>3,69; 7,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,2</t>
+          <t>3,4; 5,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,32</t>
+          <t>2,93; 11,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,98</t>
+          <t>7,03; 10,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,03</t>
+          <t>4,72; 10,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,54</t>
+          <t>13,17; 19,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,63</t>
+          <t>8,56; 12,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,4</t>
+          <t>11,5; 15,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>32,01%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,81</t>
+          <t>5,87; 12,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,25; 18,17</t>
+          <t>9,97; 18,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,95</t>
+          <t>5,26; 10,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 21,89</t>
+          <t>10,82; 16,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 13,17</t>
+          <t>6,47; 12,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,42</t>
+          <t>8,4; 15,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,97; 14,2</t>
+          <t>5,71; 11,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,59; 49,29</t>
+          <t>13,44; 78,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,23</t>
+          <t>6,71; 11,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,2</t>
+          <t>10,21; 15,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,41</t>
+          <t>6,3; 10,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,01; 41,65</t>
+          <t>13,33; 68,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,85; 16,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 21,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 10,86</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 30,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 16,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 24,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,58; 18,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28,2; 34,57</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 15,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 21,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 14,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 31,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,23; 5,8</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,37; 8,33</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>4,83; 6,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>10,16; 12,58</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 7,07</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 11,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 7,14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>8,08; 10,13</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,01; 7,74</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 22,95</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,16</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 30,86</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 6,19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,56; 8,98</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>5,65; 6,78</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 17,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 21,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,93</t>
+          <t>0,74; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,91</t>
+          <t>1,27; 4,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,38</t>
+          <t>1,66; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,01</t>
+          <t>2,33; 9,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,28</t>
+          <t>1,98; 5,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,41</t>
+          <t>2,54; 6,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,1</t>
+          <t>0,96; 4,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,29</t>
+          <t>3,75; 11,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,61</t>
+          <t>1,68; 3,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,65</t>
+          <t>2,29; 4,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,82</t>
+          <t>1,68; 3,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,01</t>
+          <t>3,42; 8,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,67</t>
+          <t>1,33; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,81</t>
+          <t>3,48; 6,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,92</t>
+          <t>1,84; 4,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 14,47</t>
+          <t>6,26; 14,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,16</t>
+          <t>1,45; 4,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,06</t>
+          <t>2,57; 6,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,92</t>
+          <t>1,21; 3,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,88</t>
+          <t>1,46; 4,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,27</t>
+          <t>1,68; 3,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,71</t>
+          <t>3,46; 5,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,7</t>
+          <t>1,84; 3,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,59</t>
+          <t>4,15; 8,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,23</t>
+          <t>2,83; 6,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,36</t>
+          <t>3,79; 7,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,28</t>
+          <t>2,34; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,43</t>
+          <t>2,3; 5,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,69</t>
+          <t>3,17; 6,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,6</t>
+          <t>5,56; 9,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,44</t>
+          <t>2,67; 5,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,24</t>
+          <t>3,73; 6,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,81</t>
+          <t>3,44; 5,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,76</t>
+          <t>5,1; 7,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,97</t>
+          <t>2,78; 4,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,73</t>
+          <t>3,41; 5,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,9</t>
+          <t>3,62; 7,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,83</t>
+          <t>4,64; 8,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,3</t>
+          <t>5,24; 9,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,12</t>
+          <t>3,25; 11,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,05</t>
+          <t>5,98; 11,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,78</t>
+          <t>7,46; 12,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,1</t>
+          <t>5,03; 8,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,76</t>
+          <t>7,02; 10,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,65</t>
+          <t>5,41; 8,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,24</t>
+          <t>6,54; 9,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,81</t>
+          <t>5,69; 8,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,16</t>
+          <t>4,86; 10,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,34</t>
+          <t>6,55; 12,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,24</t>
+          <t>7,84; 14,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 11,84</t>
+          <t>6,36; 11,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,17; 19,24</t>
+          <t>13,38; 19,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,3</t>
+          <t>5,55; 11,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 14,88</t>
+          <t>8,73; 15,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,33</t>
+          <t>10,18; 16,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,53</t>
+          <t>8,49; 12,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,7</t>
+          <t>6,61; 10,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,64</t>
+          <t>9,04; 13,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,32</t>
+          <t>9,11; 13,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,2</t>
+          <t>11,59; 14,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,35</t>
+          <t>5,7; 12,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 18,61</t>
+          <t>9,51; 18,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,86</t>
+          <t>5,23; 10,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 16,49</t>
+          <t>10,69; 16,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,33</t>
+          <t>6,15; 11,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,4; 15,78</t>
+          <t>8,06; 14,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,31</t>
+          <t>5,76; 11,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 78,75</t>
+          <t>13,6; 75,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,1</t>
+          <t>6,73; 11,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 15,44</t>
+          <t>9,84; 15,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,73</t>
+          <t>6,04; 10,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 68,43</t>
+          <t>13,4; 62,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 16,16</t>
+          <t>7,71; 16,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 21,49</t>
+          <t>11,09; 21,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,86</t>
+          <t>4,59; 10,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,76; 30,97</t>
+          <t>22,9; 31,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,92</t>
+          <t>9,16; 16,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,61; 24,07</t>
+          <t>15,52; 23,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,58; 18,66</t>
+          <t>10,17; 18,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,2; 34,57</t>
+          <t>27,76; 34,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,15</t>
+          <t>9,55; 14,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,58</t>
+          <t>14,79; 21,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,49</t>
+          <t>9,17; 14,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,95; 31,84</t>
+          <t>27,02; 32,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,8</t>
+          <t>4,26; 5,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,33</t>
+          <t>6,39; 8,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,74; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,87</t>
+          <t>8,35; 11,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,14</t>
+          <t>5,42; 7,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,08; 10,13</t>
+          <t>8,09; 10,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,01; 7,74</t>
+          <t>6,05; 7,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 30,86</t>
+          <t>10,52; 31,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,19</t>
+          <t>5,08; 6,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,98</t>
+          <t>7,55; 8,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,78</t>
+          <t>5,65; 6,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,36</t>
+          <t>10,32; 22,62</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad física</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7682</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11485</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12847</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19158</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15702</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17935</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8514</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21093</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23384</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29420</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21361</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40251</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3666; 14979</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5786; 20765</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6966; 21943</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9326; 36254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9271; 25673</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10921; 29102</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3811; 15817</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11740; 35058</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16146; 34400</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20234; 41063</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13689; 31853</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24356; 60645</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16629</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34100</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18058</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40804</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15637</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24435</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12895</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15461</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32266</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58535</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30953</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56266</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9800; 25304</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23905; 47335</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10891; 26729</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26503; 61633</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9049; 25481</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15700; 37378</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6794; 21352</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7458; 24560</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22904; 45028</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44838; 74515</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21246; 42915</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38799; 78985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26764</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36609</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24053</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19471</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32189</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52499</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25543</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31741</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>58953</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>89108</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49596</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51212</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18066; 39672</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25812; 50987</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15647; 35098</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12341; 30404</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21897; 46707</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39548; 68317</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17634; 35902</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22055; 41321</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45633; 76855</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>71083; 108850</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37014; 65400</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38427; 65429</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27733</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40021</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46732</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66671</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>43296</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60475</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44532</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62903</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>71029</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100495</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>91264</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>129574</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18777; 39583</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28521; 53726</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33831; 62169</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28813; 100876</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30859; 57442</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45938; 76470</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32621; 57359</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50023; 76103</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>55935; 87215</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>80474; 122826</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73690; 110879</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>77798; 162358</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35166</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46962</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42039</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90296</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51641</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64677</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57195</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67347</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>98603</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>106716</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>147490</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25337; 47844</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33663; 60960</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30387; 56191</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>75081; 109394</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22409; 44872</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39086; 67922</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50577; 82369</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46536; 67550</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52237; 82222</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>79306; 117122</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>88770; 130515</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128588; 166197</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25061</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>42284</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25752</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>49718</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>30562</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40534</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31982</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>262876</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55623</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>82818</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>57734</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>312594</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16674; 36324</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>29463; 58019</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17496; 35869</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>39341; 61591</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21091; 40790</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28540; 52444</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21756; 43285</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82713; 461540</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42786; 71081</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>65338; 100366</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>43015; 72331</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>130901; 612562</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>24575</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>39044</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>19014</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75873</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41961</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>75835</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>56570</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>132840</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>66536</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>114879</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>75584</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>208713</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16185; 33905</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27705; 54497</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11795; 27906</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>64749; 88004</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30578; 55312</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>60363; 91867</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40700; 73811</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>118207; 146033</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51910; 81042</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>94454; 137925</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>60271; 95253</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>191491; 228637</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>163611</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>250504</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>188494</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>361991</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>211529</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>323353</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>244714</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>584109</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>375140</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>573858</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>433208</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>946100</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>139518; 191126</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>219117; 283385</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>161060; 215899</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>288845; 406715</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>183046; 240842</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>287725; 357100</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>214419; 275554</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>390677; 1159719</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>338131; 415727</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>527507; 620899</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>392163; 478357</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>739944; 1622589</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>